--- a/modelData/参数对波浪衰减影响.xlsx
+++ b/modelData/参数对波浪衰减影响.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB9271B-06DE-4132-AC5A-4BC1F6D09DD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC0862-FB25-489D-B184-87F2ED2447B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>植被高度影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,12 +78,46 @@
     <t>ah12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>lovas without vegetation</t>
+  </si>
+  <si>
+    <t>lovas without loavas with vegetation</t>
+  </si>
+  <si>
+    <t>Mendez and Losada without vegetation</t>
+  </si>
+  <si>
+    <t>Mendez and Losada with vegetation</t>
+  </si>
+  <si>
+    <t>SWAN without vegetation</t>
+  </si>
+  <si>
+    <t>SWAN with vegetation</t>
+  </si>
+  <si>
+    <r>
+      <t>Lovas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水槽试验的验证</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +131,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,12 +181,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,15 +481,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="22.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="26.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="35.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="21.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4"/>
+    <col min="14" max="14" width="22.75" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1215,27 +1288,1580 @@
         <v>0.17016999999999999</v>
       </c>
     </row>
+    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1.15204</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.17676</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.21262</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.3856</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.20018</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6.0080000000000001E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.3856</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>5.8660199999999998</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.22314999999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.3054199999999998</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.22486</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.75646000000000002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.61636000000000002</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.21959000000000001</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.34028000000000003</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.78117999999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+    </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J26" s="1"/>
+      <c r="A26" s="1">
+        <v>8.2600899999999999</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.22919</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.6281300000000005</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.18210999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.15204</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.0119400000000001</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.21881999999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.78117999999999999</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.19736</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.22145000000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J27" s="1"/>
+      <c r="A27" s="1">
+        <v>9.6034100000000002</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10.905519999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.19341</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.59294</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.36219</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.21789</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.2220899999999999</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.5723400000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.21959000000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J28" s="1"/>
+      <c r="A28" s="1">
+        <v>10.880800000000001</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.22408</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12.022209999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.14802999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.0132400000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.84842</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.21881999999999999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.5723400000000001</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.9638</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.21881999999999999</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J29" s="1"/>
+      <c r="A29" s="1">
+        <v>12.042809999999999</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.20921000000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12.833970000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.15065999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.3593799999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.1492200000000001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.9885200000000001</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.21959000000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J30" s="1"/>
+      <c r="A30" s="1">
+        <v>12.784520000000001</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.20038</v>
+      </c>
+      <c r="C30" s="1">
+        <v>13.806430000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.13408999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.8002799999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.6148500000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.21959000000000001</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2.3387699999999998</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.21881999999999999</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2.8002799999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.22145000000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J31" s="1"/>
+      <c r="A31" s="1">
+        <v>13.806430000000001</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.18132999999999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>14.898389999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.13594999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.1711399999999998</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.0557599999999998</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.21959000000000001</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.7796799999999999</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.21881999999999999</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3.1711399999999998</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>14.898389999999999</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.17684</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16.130459999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.13936000000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.56671</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.4966599999999999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.21959000000000001</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3.1958600000000001</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.21959000000000001</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3.6120399999999999</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>16.105730000000001</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.15762999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>17.4985</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.12898000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4.0076200000000002</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.7521399999999998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3.6367699999999998</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="K33" s="1">
+        <v>4.0323399999999996</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>17.477900000000002</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.12975</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>4.4032</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.0776700000000003</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4.1023899999999998</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4.3784799999999997</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>4.7740499999999999</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4.5886300000000002</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4.4279200000000003</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4.75345</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>5.1696299999999997</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4.9388800000000002</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4.7740499999999999</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5.1449100000000003</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>5.5858100000000004</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.22222</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5.3550599999999999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5.1696299999999997</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.22051999999999999</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5.6352599999999997</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>6.0061200000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5.93607</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5.7259099999999998</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5.9813900000000002</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>6.4717500000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.22749</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6.3069199999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.22578999999999999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6.0061200000000001</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="K39" s="1">
+        <v>6.4016900000000003</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.22919</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>6.8426</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.23183000000000001</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6.6571699999999998</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.22842000000000001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>6.3522499999999997</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.22842000000000001</v>
+      </c>
+      <c r="K40" s="1">
+        <v>6.8178799999999997</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.22919</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>7.2134600000000004</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.23369000000000001</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6.9579800000000001</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.22656000000000001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>6.3522499999999997</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.22842000000000001</v>
+      </c>
+      <c r="K41" s="1">
+        <v>7.2587799999999998</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>7.5843100000000003</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.23275999999999999</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7.7944599999999999</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>6.72722</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.22919</v>
+      </c>
+      <c r="K42" s="1">
+        <v>7.5843100000000003</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.21618000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>8.0252199999999991</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.23369000000000001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8.4455200000000001</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.21092</v>
+      </c>
+      <c r="I43" s="1">
+        <v>7.2587799999999998</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.23011999999999999</v>
+      </c>
+      <c r="K43" s="1">
+        <v>8.0252199999999991</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.20827999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>8.4207900000000002</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.23446</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9.0017999999999994</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.20394999999999999</v>
+      </c>
+      <c r="I44" s="1">
+        <v>7.2587799999999998</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.23011999999999999</v>
+      </c>
+      <c r="K44" s="1">
+        <v>8.4455200000000001</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.20658000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>8.8369800000000005</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.23369000000000001</v>
+      </c>
+      <c r="G45" s="1">
+        <v>9.6981800000000007</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.19434000000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>7.5843100000000003</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.22842000000000001</v>
+      </c>
+      <c r="K45" s="1">
+        <v>8.7916500000000006</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.20038</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>9.2325499999999998</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.23183000000000001</v>
+      </c>
+      <c r="G46" s="1">
+        <v>10.36984</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.18473999999999999</v>
+      </c>
+      <c r="I46" s="1">
+        <v>8.0499399999999994</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.22919</v>
+      </c>
+      <c r="K46" s="1">
+        <v>9.1872299999999996</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.19434000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>9.6281300000000005</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.23183000000000001</v>
+      </c>
+      <c r="G47" s="1">
+        <v>11.066229999999999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>8.7916500000000006</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.22919</v>
+      </c>
+      <c r="K47" s="1">
+        <v>9.6528600000000004</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.19001000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>10.023709999999999</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.23011999999999999</v>
+      </c>
+      <c r="G48" s="1">
+        <v>11.51125</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>9.2325499999999998</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.22919</v>
+      </c>
+      <c r="K48" s="1">
+        <v>10.32452</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.1787</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>10.41929</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.22842000000000001</v>
+      </c>
+      <c r="G49" s="1">
+        <v>12.25296</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.15251999999999999</v>
+      </c>
+      <c r="I49" s="1">
+        <v>9.6528600000000004</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.22749</v>
+      </c>
+      <c r="K49" s="1">
+        <v>10.810750000000001</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.17080000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>10.880800000000001</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.22842000000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <v>12.879289999999999</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.14199000000000001</v>
+      </c>
+      <c r="I50" s="1">
+        <v>9.9536599999999993</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.22486</v>
+      </c>
+      <c r="K50" s="1">
+        <v>11.206329999999999</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.1646</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>11.206329999999999</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.22578999999999999</v>
+      </c>
+      <c r="G51" s="1">
+        <v>13.48502</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.13145999999999999</v>
+      </c>
+      <c r="I51" s="1">
+        <v>10.34924</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.22222</v>
+      </c>
+      <c r="K51" s="1">
+        <v>11.60191</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.15686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <v>11.62663</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.22222</v>
+      </c>
+      <c r="G52" s="1">
+        <v>14.18141</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.12107999999999999</v>
+      </c>
+      <c r="I52" s="1">
+        <v>10.835470000000001</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.22314999999999999</v>
+      </c>
+      <c r="K52" s="1">
+        <v>12.022209999999999</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.14896000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <v>12.022209999999999</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.21959000000000001</v>
+      </c>
+      <c r="G53" s="1">
+        <v>14.78302</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.12278</v>
+      </c>
+      <c r="I53" s="1">
+        <v>11.18572</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="K53" s="1">
+        <v>12.41367</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.14199000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
+        <v>12.43839</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.21618000000000001</v>
+      </c>
+      <c r="G54" s="1">
+        <v>15.4794</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.12371</v>
+      </c>
+      <c r="I54" s="1">
+        <v>11.62663</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.21959000000000001</v>
+      </c>
+      <c r="K54" s="1">
+        <v>12.809240000000001</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.13672000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <v>12.809240000000001</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.20999000000000001</v>
+      </c>
+      <c r="G55" s="1">
+        <v>16.17578</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.12449</v>
+      </c>
+      <c r="I55" s="1">
+        <v>12.042809999999999</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.21618000000000001</v>
+      </c>
+      <c r="K55" s="1">
+        <v>13.180099999999999</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.12975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <v>13.180099999999999</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.20658000000000001</v>
+      </c>
+      <c r="G56" s="1">
+        <v>16.872170000000001</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.12185</v>
+      </c>
+      <c r="I56" s="1">
+        <v>12.41367</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.21185000000000001</v>
+      </c>
+      <c r="K56" s="1">
+        <v>13.6004</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.12107999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
+        <v>13.621</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.20130999999999999</v>
+      </c>
+      <c r="G57" s="1">
+        <v>17.383120000000002</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.11752</v>
+      </c>
+      <c r="I57" s="1">
+        <v>12.833970000000001</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.20751</v>
+      </c>
+      <c r="K57" s="1">
+        <v>13.971259999999999</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.11845</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <v>13.971259999999999</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.19434000000000001</v>
+      </c>
+      <c r="G58" s="1">
+        <v>18.244330000000001</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.10714</v>
+      </c>
+      <c r="I58" s="1">
+        <v>13.20482</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.20394999999999999</v>
+      </c>
+      <c r="K58" s="1">
+        <v>14.38744</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.11845</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <v>14.36683</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.1883</v>
+      </c>
+      <c r="G59" s="1">
+        <v>18.870660000000001</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9.6610000000000001E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>13.670450000000001</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.19868</v>
+      </c>
+      <c r="K59" s="1">
+        <v>14.828340000000001</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.11845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>14.807740000000001</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.18132999999999999</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1">
+        <v>14.041309999999999</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.19264000000000001</v>
+      </c>
+      <c r="K60" s="1">
+        <v>15.22392</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.11845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
+        <v>15.20332</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.17684</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1">
+        <v>14.41216</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.18737000000000001</v>
+      </c>
+      <c r="K61" s="1">
+        <v>15.59478</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.11937</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
+        <v>15.574170000000001</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.16986999999999999</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1">
+        <v>14.877789999999999</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.18132999999999999</v>
+      </c>
+      <c r="K62" s="1">
+        <v>16.035679999999999</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.11937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <v>16.015080000000001</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.15948999999999999</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1">
+        <v>15.17859</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.17684</v>
+      </c>
+      <c r="K63" s="1">
+        <v>16.45598</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.11674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
+        <v>16.41066</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.15593000000000001</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1">
+        <v>15.6195</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.16816999999999999</v>
+      </c>
+      <c r="K64" s="1">
+        <v>16.851559999999999</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.11674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1">
+        <v>16.781510000000001</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.14726</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1">
+        <v>16.035679999999999</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.15856000000000001</v>
+      </c>
+      <c r="K65" s="1">
+        <v>17.243020000000001</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.11581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
+        <v>17.22242</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.13843</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1">
+        <v>16.385929999999998</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.15159</v>
+      </c>
+      <c r="K66" s="1">
+        <v>17.617999999999999</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0.11411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
+        <v>17.617999999999999</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.12898000000000001</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1">
+        <v>16.736190000000001</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.14369000000000001</v>
+      </c>
+      <c r="K67" s="1">
+        <v>18.058900000000001</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.11055</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
+        <v>17.964130000000001</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.12278</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1">
+        <v>17.12764</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.13672000000000001</v>
+      </c>
+      <c r="K68" s="1">
+        <v>18.40503</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.10528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <v>18.35971</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.11488</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1">
+        <v>17.988849999999999</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.12015000000000001</v>
+      </c>
+      <c r="K69" s="1">
+        <v>18.895389999999999</v>
+      </c>
+      <c r="L69" s="1">
+        <v>9.7540000000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>18.77589</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.10621</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1">
+        <v>18.334980000000002</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.11411</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <v>19.196190000000001</v>
+      </c>
+      <c r="F71" s="1">
+        <v>9.5680000000000001E-2</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1">
+        <v>18.730560000000001</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.10451000000000001</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
+        <v>19.6371</v>
+      </c>
+      <c r="F72" s="1">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1">
+        <v>19.22091</v>
+      </c>
+      <c r="J72" s="1">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1">
+        <v>19.59177</v>
+      </c>
+      <c r="J73" s="1">
+        <v>8.6069999999999994E-2</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:N2"/>
+    <mergeCell ref="D21:L22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
